--- a/biology/Médecine/Association_tunisienne_des_étudiants_en_pharmacie/Association_tunisienne_des_étudiants_en_pharmacie.xlsx
+++ b/biology/Médecine/Association_tunisienne_des_étudiants_en_pharmacie/Association_tunisienne_des_étudiants_en_pharmacie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Association_tunisienne_des_%C3%A9tudiants_en_pharmacie</t>
+          <t>Association_tunisienne_des_étudiants_en_pharmacie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Association tunisienne des étudiants en pharmacie (ATEP) est une association à but non lucratif tunisienne autorisée par la licence no 118 du 15 janvier 1985. Elle est basée à la faculté de pharmacie de Monastir[1].
-L'ATEP est membre de la Fédération internationale des étudiants en pharmacie (IPSF)[2], une organisation agissant sous la tutelle de la Fédération internationale pharmaceutique. En 2010-2011, l'ATEP est récompensée par le Prix Otto-Föcking de l'IPSF pour la meilleure performance d'un nouveau membre[3].
-L'ATEP compte plus de 600 adhérents et déploie ses activités dans divers domaines[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Association tunisienne des étudiants en pharmacie (ATEP) est une association à but non lucratif tunisienne autorisée par la licence no 118 du 15 janvier 1985. Elle est basée à la faculté de pharmacie de Monastir.
+L'ATEP est membre de la Fédération internationale des étudiants en pharmacie (IPSF), une organisation agissant sous la tutelle de la Fédération internationale pharmaceutique. En 2010-2011, l'ATEP est récompensée par le Prix Otto-Föcking de l'IPSF pour la meilleure performance d'un nouveau membre.
+L'ATEP compte plus de 600 adhérents et déploie ses activités dans divers domaines.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Association_tunisienne_des_%C3%A9tudiants_en_pharmacie</t>
+          <t>Association_tunisienne_des_étudiants_en_pharmacie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Comités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'ATEP compte sept comités qui sont représentés chacun par une couleur dans son logo[5],[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'ATEP compte sept comités qui sont représentés chacun par une couleur dans son logo, :
 Comité nature : Dévoué à l'embellissement et la préservation des espaces verts de la faculté, ce comité milite aussi pour la réinstauration du jardin botanique au sein de la faculté de pharmacie ; il regroupe les férus de pharmacognosie et de phytothérapie mais aussi les amoureux de la nature.
 Comité sport : Ce comité compte plusieurs équipes de volley-ball, de football et de natation ; des tournois dans ces différentes disciplines sont organisés durant l'année.
 Comité de développement professionnel : Ce comité organise des formations hebdomadaires ou mensuelles en vue d'aider les étudiants à améliorer et acquérir des compétences de leadership, de gestion du temps, de gestion de projets, etc.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Association_tunisienne_des_%C3%A9tudiants_en_pharmacie</t>
+          <t>Association_tunisienne_des_étudiants_en_pharmacie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,12 +566,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pharmarathon
-Le « pharmarathon » est un marathon organisé pour la première fois le 24 octobre 2010, sous le slogan « Le défi des 1 000 étudiants », et pour la deuxième fois le 8 mars 2016 sous le slogan « Marche pour la paix ». Destiné aux étudiants de la région du Sahel, une partie des revenus engendrés est reversée à l'Association tunisienne des malades de la sclérose en plaques[7]. Deux courses sont prévues : neuf kilomètres pour les garçons et cinq pour les filles[7].
+          <t>Pharmarathon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le « pharmarathon » est un marathon organisé pour la première fois le 24 octobre 2010, sous le slogan « Le défi des 1 000 étudiants », et pour la deuxième fois le 8 mars 2016 sous le slogan « Marche pour la paix ». Destiné aux étudiants de la région du Sahel, une partie des revenus engendrés est reversée à l'Association tunisienne des malades de la sclérose en plaques. Deux courses sont prévues : neuf kilomètres pour les garçons et cinq pour les filles.
 Pour la troisième fois en mars 2018, l'ATEP organise le « pharmarathon » sous le slogan Running Take You Higher Than Drugs pour sensibiliser aux mauvais usages des substances toxiques.
-Congrès national de l'étudiant en pharmacie
-L'ATEP organise le sixième Congrès national de l'étudiant en pharmacie, du 14 au 16 octobre 2011 au Port El-Kantaoui[8]. Parmi les intervenants figure le professeur Amor Toumi, ancien directeur de la pharmacie et du médicament et du Laboratoire national de contrôle des médicaments, conseiller auprès de l'OMS à Genève[9], qui donne une conférence sur la contrefaçon des médicaments ; Mehdi Dridi, assistant hospitalo-universitaire, donne une conférence sur les nouveaux médicaments anticoagulants par voie orale.
-L'ATEP organise également le douzième congrès, du 20 au 22 octobre 2017 à Hammamet. Parmi les intervenants figurent Fathi Krid, président fondateur de l'ATEP et Léa Corsia, vice-présidente de l'Association des pharmaciens humanitaires[10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Association_tunisienne_des_étudiants_en_pharmacie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Association_tunisienne_des_%C3%A9tudiants_en_pharmacie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Congrès national de l'étudiant en pharmacie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ATEP organise le sixième Congrès national de l'étudiant en pharmacie, du 14 au 16 octobre 2011 au Port El-Kantaoui. Parmi les intervenants figure le professeur Amor Toumi, ancien directeur de la pharmacie et du médicament et du Laboratoire national de contrôle des médicaments, conseiller auprès de l'OMS à Genève, qui donne une conférence sur la contrefaçon des médicaments ; Mehdi Dridi, assistant hospitalo-universitaire, donne une conférence sur les nouveaux médicaments anticoagulants par voie orale.
+L'ATEP organise également le douzième congrès, du 20 au 22 octobre 2017 à Hammamet. Parmi les intervenants figurent Fathi Krid, président fondateur de l'ATEP et Léa Corsia, vice-présidente de l'Association des pharmaciens humanitaires.
 </t>
         </is>
       </c>
